--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.802404</v>
+        <v>0.2456256666666667</v>
       </c>
       <c r="H2">
-        <v>20.407212</v>
+        <v>0.736877</v>
       </c>
       <c r="I2">
-        <v>0.9280918435277148</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="J2">
-        <v>0.9280918435277147</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.175282</v>
+        <v>0.123664</v>
       </c>
       <c r="N2">
-        <v>0.525846</v>
+        <v>0.370992</v>
       </c>
       <c r="O2">
-        <v>0.4123557900415927</v>
+        <v>0.2705145209638691</v>
       </c>
       <c r="P2">
-        <v>0.4123557900415927</v>
+        <v>0.2705145209638691</v>
       </c>
       <c r="Q2">
-        <v>1.192338977928</v>
+        <v>0.03037505244266666</v>
       </c>
       <c r="R2">
-        <v>10.731050801352</v>
+        <v>0.273375471984</v>
       </c>
       <c r="S2">
-        <v>0.3827040453690291</v>
+        <v>0.009384260928659377</v>
       </c>
       <c r="T2">
-        <v>0.382704045369029</v>
+        <v>0.009384260928659377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.802404</v>
+        <v>0.2456256666666667</v>
       </c>
       <c r="H3">
-        <v>20.407212</v>
+        <v>0.736877</v>
       </c>
       <c r="I3">
-        <v>0.9280918435277148</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="J3">
-        <v>0.9280918435277147</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2497926666666666</v>
+        <v>0.030255</v>
       </c>
       <c r="N3">
-        <v>0.7493779999999999</v>
+        <v>0.090765</v>
       </c>
       <c r="O3">
-        <v>0.5876442099584073</v>
+        <v>0.06618269530147708</v>
       </c>
       <c r="P3">
-        <v>0.5876442099584073</v>
+        <v>0.06618269530147708</v>
       </c>
       <c r="Q3">
-        <v>1.699190634904</v>
+        <v>0.007431404545</v>
       </c>
       <c r="R3">
-        <v>15.292715714136</v>
+        <v>0.066882640905</v>
       </c>
       <c r="S3">
-        <v>0.5453877981586857</v>
+        <v>0.002295905149409606</v>
       </c>
       <c r="T3">
-        <v>0.5453877981586857</v>
+        <v>0.002295905149409606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5270473333333333</v>
+        <v>0.2456256666666667</v>
       </c>
       <c r="H4">
-        <v>1.581142</v>
+        <v>0.736877</v>
       </c>
       <c r="I4">
-        <v>0.07190815647228528</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="J4">
-        <v>0.07190815647228528</v>
+        <v>0.03469041475194144</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.175282</v>
+        <v>0.3032246666666666</v>
       </c>
       <c r="N4">
-        <v>0.525846</v>
+        <v>0.909674</v>
       </c>
       <c r="O4">
-        <v>0.4123557900415927</v>
+        <v>0.6633027837346538</v>
       </c>
       <c r="P4">
-        <v>0.4123557900415927</v>
+        <v>0.6633027837346539</v>
       </c>
       <c r="Q4">
-        <v>0.09238191068133333</v>
+        <v>0.07447976089977777</v>
       </c>
       <c r="R4">
-        <v>0.8314371961320001</v>
+        <v>0.670317848098</v>
       </c>
       <c r="S4">
-        <v>0.02965174467256367</v>
+        <v>0.02301024867387245</v>
       </c>
       <c r="T4">
-        <v>0.02965174467256367</v>
+        <v>0.02301024867387246</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.802404</v>
+      </c>
+      <c r="H5">
+        <v>20.407212</v>
+      </c>
+      <c r="I5">
+        <v>0.9607229540490425</v>
+      </c>
+      <c r="J5">
+        <v>0.9607229540490425</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.123664</v>
+      </c>
+      <c r="N5">
+        <v>0.370992</v>
+      </c>
+      <c r="O5">
+        <v>0.2705145209638691</v>
+      </c>
+      <c r="P5">
+        <v>0.2705145209638691</v>
+      </c>
+      <c r="Q5">
+        <v>0.841212488256</v>
+      </c>
+      <c r="R5">
+        <v>7.570912394304</v>
+      </c>
+      <c r="S5">
+        <v>0.25988950969357</v>
+      </c>
+      <c r="T5">
+        <v>0.25988950969357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6.802404</v>
+      </c>
+      <c r="H6">
+        <v>20.407212</v>
+      </c>
+      <c r="I6">
+        <v>0.9607229540490425</v>
+      </c>
+      <c r="J6">
+        <v>0.9607229540490425</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.030255</v>
+      </c>
+      <c r="N6">
+        <v>0.090765</v>
+      </c>
+      <c r="O6">
+        <v>0.06618269530147708</v>
+      </c>
+      <c r="P6">
+        <v>0.06618269530147708</v>
+      </c>
+      <c r="Q6">
+        <v>0.20580673302</v>
+      </c>
+      <c r="R6">
+        <v>1.85226059718</v>
+      </c>
+      <c r="S6">
+        <v>0.06358323453696274</v>
+      </c>
+      <c r="T6">
+        <v>0.06358323453696274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.802404</v>
+      </c>
+      <c r="H7">
+        <v>20.407212</v>
+      </c>
+      <c r="I7">
+        <v>0.9607229540490425</v>
+      </c>
+      <c r="J7">
+        <v>0.9607229540490425</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3032246666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.909674</v>
+      </c>
+      <c r="O7">
+        <v>0.6633027837346538</v>
+      </c>
+      <c r="P7">
+        <v>0.6633027837346539</v>
+      </c>
+      <c r="Q7">
+        <v>2.062656685432</v>
+      </c>
+      <c r="R7">
+        <v>18.563910168888</v>
+      </c>
+      <c r="S7">
+        <v>0.6372502098185098</v>
+      </c>
+      <c r="T7">
+        <v>0.6372502098185099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.5270473333333333</v>
-      </c>
-      <c r="H5">
-        <v>1.581142</v>
-      </c>
-      <c r="I5">
-        <v>0.07190815647228528</v>
-      </c>
-      <c r="J5">
-        <v>0.07190815647228528</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.2497926666666666</v>
-      </c>
-      <c r="N5">
-        <v>0.7493779999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.5876442099584073</v>
-      </c>
-      <c r="P5">
-        <v>0.5876442099584073</v>
-      </c>
-      <c r="Q5">
-        <v>0.1316525588528889</v>
-      </c>
-      <c r="R5">
-        <v>1.184873029676</v>
-      </c>
-      <c r="S5">
-        <v>0.04225641179972162</v>
-      </c>
-      <c r="T5">
-        <v>0.04225641179972162</v>
+      <c r="G8">
+        <v>0.03247566666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.097427</v>
+      </c>
+      <c r="I8">
+        <v>0.004586631199016116</v>
+      </c>
+      <c r="J8">
+        <v>0.004586631199016115</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.123664</v>
+      </c>
+      <c r="N8">
+        <v>0.370992</v>
+      </c>
+      <c r="O8">
+        <v>0.2705145209638691</v>
+      </c>
+      <c r="P8">
+        <v>0.2705145209638691</v>
+      </c>
+      <c r="Q8">
+        <v>0.004016070842666667</v>
+      </c>
+      <c r="R8">
+        <v>0.036144637584</v>
+      </c>
+      <c r="S8">
+        <v>0.001240750341639781</v>
+      </c>
+      <c r="T8">
+        <v>0.001240750341639781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03247566666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.097427</v>
+      </c>
+      <c r="I9">
+        <v>0.004586631199016116</v>
+      </c>
+      <c r="J9">
+        <v>0.004586631199016115</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.030255</v>
+      </c>
+      <c r="N9">
+        <v>0.090765</v>
+      </c>
+      <c r="O9">
+        <v>0.06618269530147708</v>
+      </c>
+      <c r="P9">
+        <v>0.06618269530147708</v>
+      </c>
+      <c r="Q9">
+        <v>0.000982551295</v>
+      </c>
+      <c r="R9">
+        <v>0.008842961655</v>
+      </c>
+      <c r="S9">
+        <v>0.0003035556151047321</v>
+      </c>
+      <c r="T9">
+        <v>0.000303555615104732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03247566666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.097427</v>
+      </c>
+      <c r="I10">
+        <v>0.004586631199016116</v>
+      </c>
+      <c r="J10">
+        <v>0.004586631199016115</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3032246666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.909674</v>
+      </c>
+      <c r="O10">
+        <v>0.6633027837346538</v>
+      </c>
+      <c r="P10">
+        <v>0.6633027837346539</v>
+      </c>
+      <c r="Q10">
+        <v>0.009847423199777777</v>
+      </c>
+      <c r="R10">
+        <v>0.088626808798</v>
+      </c>
+      <c r="S10">
+        <v>0.003042325242271603</v>
+      </c>
+      <c r="T10">
+        <v>0.003042325242271602</v>
       </c>
     </row>
   </sheetData>
